--- a/data/trans_dic/P24_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P24_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con problemas de sueño con bastante o mucha frecuencia</t>
+          <t>Población con problemas de sueño con bastante o mucha frecuencia (tasa de respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,45%</t>
+          <t>19,92%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,11%</t>
+          <t>21,69%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21,39%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>28,24%</t>
+          <t>60,23%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,95%</t>
+          <t>29,85%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>43,04%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,6%</t>
+          <t>40,37%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>26,19%</t>
+          <t>37,24%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>26,21%</t>
+          <t>50,96%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>27,78%</t>
+          <t>22,76%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>25,48%</t>
+          <t>32,06%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>31,39%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>27,07%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>55,16%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,51; 34,0</t>
+          <t>5,58; 26,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,23; 27,6</t>
+          <t>8,76; 34,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,0; 33,23</t>
+          <t>8,8; 36,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,48; 31,98</t>
+          <t>5,8; 31,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,08; 38,15</t>
+          <t>37,57; 86,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,18; 41,94</t>
+          <t>18,73; 45,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,16; 40,89</t>
+          <t>29,41; 59,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,8; 38,0</t>
+          <t>27,33; 55,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,17; 32,46</t>
+          <t>24,6; 51,87</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,47; 33,26</t>
+          <t>34,42; 69,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>21,22; 34,57</t>
+          <t>15,36; 32,07</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,28; 32,7</t>
+          <t>20,92; 43,45</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>20,59; 41,92</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>17,98; 37,88</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>40,2; 71,21</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>15,6%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24,21%</t>
+          <t>30,54%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>21,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>18,15%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39,86%</t>
+          <t>27,58%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>35,02%</t>
+          <t>41,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>31,32%</t>
+          <t>38,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>33,0%</t>
+          <t>35,48%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>28,15%</t>
+          <t>35,61%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>29,81%</t>
+          <t>41,16%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>25,28%</t>
+          <t>28,93%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>23,27%</t>
+          <t>34,92%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>28,41%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>26,58%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>34,22%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,62; 20,34</t>
+          <t>10,34; 22,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,59; 32,23</t>
+          <t>22,33; 44,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,08; 24,47</t>
+          <t>15,04; 29,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,39; 19,35</t>
+          <t>11,82; 25,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,24; 46,03</t>
+          <t>19,18; 41,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,63; 41,22</t>
+          <t>34,13; 49,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,15; 37,09</t>
+          <t>32,32; 46,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,06; 38,96</t>
+          <t>28,47; 42,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,17; 32,09</t>
+          <t>28,73; 42,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,99; 34,31</t>
+          <t>33,65; 48,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21,62; 29,05</t>
+          <t>24,51; 34,27</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,59; 27,21</t>
+          <t>29,33; 41,19</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>23,69; 34,2</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>21,79; 31,46</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>28,78; 40,93</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>22,84%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,53%</t>
+          <t>25,85%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>16,89%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>31,66%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>31,53%</t>
+          <t>33,96%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>31,14%</t>
+          <t>28,81%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>31,37%</t>
+          <t>26,79%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>27,31%</t>
+          <t>24,53%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>27,38%</t>
+          <t>27,91%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>29,03%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>25,28%</t>
+          <t>27,52%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>26,22%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>21,04%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>23,56%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,29; 28,53</t>
+          <t>15,99; 31,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,35; 30,22</t>
+          <t>18,28; 36,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,41; 31,05</t>
+          <t>18,41; 36,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,61; 24,63</t>
+          <t>11,21; 24,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,35; 37,77</t>
+          <t>12,32; 26,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,13; 38,05</t>
+          <t>25,93; 42,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,48; 36,86</t>
+          <t>22,37; 36,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,88; 37,18</t>
+          <t>20,11; 34,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,98; 31,84</t>
+          <t>18,28; 31,64</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>22,85; 31,98</t>
+          <t>20,75; 35,75</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>23,16; 32,08</t>
+          <t>23,75; 34,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>21,4; 29,19</t>
+          <t>22,24; 34,59</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>20,54; 32,47</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>16,88; 25,39</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>18,62; 28,82</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>31,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>27,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>28,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,7; 22,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,99; 27,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,78; 25,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,64; 20,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,92; 38,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,63; 37,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,29; 34,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,83; 35,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,02; 30,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,52; 31,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>23,93; 29,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,55; 26,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18,21%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>27,26%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>22,89%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>17,42%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>30,1%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>36,76%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>35,32%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>32,57%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>31,45%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>38,27%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>28,13%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>31,59%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>27,96%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>24,58%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>34,3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>14,3; 22,85</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>21,64; 34,29</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>18,36; 28,38</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>13,03; 21,91</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>22,63; 42,29</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>31,93; 42,09</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>30,74; 40,34</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>27,84; 37,5</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>26,96; 36,05</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>33,23; 45,25</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>24,62; 31,89</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>27,67; 35,56</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>24,34; 31,5</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>21,46; 27,96</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>29,95; 40,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con problemas de sueño con bastante o mucha frecuencia (tasa de respuesta: 99,93%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>15157</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>25679</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>22879</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>18436</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>106987</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>35168</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>61326</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>45965</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>45583</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>109035</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>50325</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>87005</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>68844</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>64019</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>216022</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5770; 27432</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>11292; 44366</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9277; 38488</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6623; 35679</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>66746; 154272</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>22060; 53336</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>41896; 84065</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>31111; 63363</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>30107; 63480</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>73643; 147949</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>33971; 70934</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>56763; 117908</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>45149; 91939</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>42519; 89602</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>157413; 278844</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>57094</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>131179</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>79943</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>72497</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>142511</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>161840</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>180989</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>135137</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>132913</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>203603</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>218934</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>312167</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>215081</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>205410</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>346114</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>37840; 83574</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>95891; 190031</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>56594; 109715</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>47218; 100716</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>99109; 214363</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>133336; 193240</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>150128; 215596</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>108457; 160603</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>107233; 160230</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>166460; 240754</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>185456; 259283</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>262194; 368226</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>179404; 258938</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>168385; 243096</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>291126; 414013</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>65311</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>86060</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>72115</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>46506</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>65883</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>122116</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>123418</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>92322</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>80335</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>111510</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>187427</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>209477</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>164437</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>126841</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>177393</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>45733; 88961</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>60846; 122882</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>51980; 104093</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>30872; 67238</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>43538; 92426</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>93246; 151823</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>95821; 156456</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>69301; 118563</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>59846; 103599</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>82901; 142839</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>153293; 223179</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>169336; 263318</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>128805; 203583</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>101757; 153043</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>140194; 216957</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>137561</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>242918</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>174937</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>137439</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>315381</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>319124</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>365732</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>273425</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>258831</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>424148</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>456685</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>608651</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>448362</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>396270</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>739529</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>108010; 172583</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>192840; 305628</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>140316; 216836</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>102832; 172836</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>237040; 443082</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>277155; 365328</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>318254; 417663</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>233652; 314793</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>221928; 296736</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>368204; 501480</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>399718; 517702</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>533093; 685056</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>390224; 505042</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>345905; 450719</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>645731; 868391</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
